--- a/Files/MathQA Files/MathQA_results.xlsx
+++ b/Files/MathQA Files/MathQA_results.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="27425"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="27628"/>
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/47bc981eb124341c/Ambiente de Trabalho/TESE_2024/DATASETS TESE/DATASET_ANSWERS/MathQA/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="730" documentId="11_AD6BFDCE8F79A8D366075C52F3B0E2B365EBFA1B" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{3C3201D8-692D-4D60-A320-3C815DC67421}"/>
+  <xr:revisionPtr revIDLastSave="934" documentId="11_AD6BFDCE8F79A8D366075C52F3B0E2B365EBFA1B" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{479C59EE-E861-4ECE-B4A0-F48B5D429524}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10420" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10420" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="General Analysis" sheetId="1" r:id="rId1"/>
@@ -35,7 +35,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="109" uniqueCount="45">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="110" uniqueCount="50">
   <si>
     <t>Sub-Branch</t>
   </si>
@@ -171,13 +171,30 @@
   <si>
     <t>𝑠𝑡𝑎𝑛𝑑𝑎𝑟𝑑 𝑑𝑒𝑣𝑖𝑎𝑡𝑖𝑜𝑛 (𝜎)</t>
   </si>
+  <si>
+    <t>p-value</t>
+  </si>
+  <si>
+    <t>alpha</t>
+  </si>
+  <si>
+    <t>Binomial Distribution
+Parameters</t>
+  </si>
+  <si>
+    <t xml:space="preserve">test statistic </t>
+  </si>
+  <si>
+    <t>test statistic</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <numFmts count="1">
+  <numFmts count="2">
     <numFmt numFmtId="164" formatCode="0.00000%"/>
+    <numFmt numFmtId="168" formatCode="0.00000"/>
   </numFmts>
   <fonts count="4" x14ac:knownFonts="1">
     <font>
@@ -531,7 +548,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="9" fontId="2" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="64">
+  <cellXfs count="68">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -648,6 +665,14 @@
     <xf numFmtId="164" fontId="0" fillId="0" borderId="6" xfId="0" applyNumberFormat="1" applyBorder="1"/>
     <xf numFmtId="164" fontId="0" fillId="0" borderId="10" xfId="0" applyNumberFormat="1" applyBorder="1"/>
     <xf numFmtId="164" fontId="0" fillId="0" borderId="17" xfId="0" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="3" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="1" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="22" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -655,7 +680,7 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="24" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -663,7 +688,7 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="25" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="3" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="168" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -2721,6 +2746,1553 @@
     </mc:AlternateContent>
     <xdr:clientData/>
   </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>457200</xdr:colOff>
+      <xdr:row>17</xdr:row>
+      <xdr:rowOff>12700</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>12</xdr:col>
+      <xdr:colOff>152400</xdr:colOff>
+      <xdr:row>28</xdr:row>
+      <xdr:rowOff>158750</xdr:rowOff>
+    </xdr:to>
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
+      <mc:Choice Requires="a14">
+        <xdr:sp macro="" textlink="">
+          <xdr:nvSpPr>
+            <xdr:cNvPr id="3" name="TextBox 2">
+              <a:extLst>
+                <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{541A70C8-E75C-4356-8A10-6F17029E0DDB}"/>
+                </a:ext>
+              </a:extLst>
+            </xdr:cNvPr>
+            <xdr:cNvSpPr txBox="1"/>
+          </xdr:nvSpPr>
+          <xdr:spPr>
+            <a:xfrm>
+              <a:off x="457200" y="3162300"/>
+              <a:ext cx="9302750" cy="2171700"/>
+            </a:xfrm>
+            <a:prstGeom prst="rect">
+              <a:avLst/>
+            </a:prstGeom>
+            <a:solidFill>
+              <a:schemeClr val="lt1"/>
+            </a:solidFill>
+            <a:ln w="12700" cmpd="sng">
+              <a:solidFill>
+                <a:sysClr val="windowText" lastClr="000000"/>
+              </a:solidFill>
+            </a:ln>
+          </xdr:spPr>
+          <xdr:style>
+            <a:lnRef idx="0">
+              <a:scrgbClr r="0" g="0" b="0"/>
+            </a:lnRef>
+            <a:fillRef idx="0">
+              <a:scrgbClr r="0" g="0" b="0"/>
+            </a:fillRef>
+            <a:effectRef idx="0">
+              <a:scrgbClr r="0" g="0" b="0"/>
+            </a:effectRef>
+            <a:fontRef idx="minor">
+              <a:schemeClr val="dk1"/>
+            </a:fontRef>
+          </xdr:style>
+          <xdr:txBody>
+            <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="square" rtlCol="0" anchor="t"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:r>
+                <a:rPr lang="en-US" sz="1100" b="1"/>
+                <a:t>Theory</a:t>
+              </a:r>
+              <a:r>
+                <a:rPr lang="en-US" sz="1100" b="1" baseline="0"/>
+                <a:t> behind hypothesis test:</a:t>
+              </a:r>
+            </a:p>
+            <a:p>
+              <a:r>
+                <a:rPr lang="en-US" sz="1100"/>
+                <a:t>To</a:t>
+              </a:r>
+              <a:r>
+                <a:rPr lang="en-US" sz="1100" baseline="0"/>
+                <a:t> test if GPT-4 is better than GPT-3.5, we can test the following hypothesis:</a:t>
+              </a:r>
+            </a:p>
+            <a:p>
+              <a:pPr/>
+              <a14:m>
+                <m:oMathPara xmlns:m="http://schemas.openxmlformats.org/officeDocument/2006/math">
+                  <m:oMathParaPr>
+                    <m:jc m:val="centerGroup"/>
+                  </m:oMathParaPr>
+                  <m:oMath xmlns:m="http://schemas.openxmlformats.org/officeDocument/2006/math">
+                    <m:sSub>
+                      <m:sSubPr>
+                        <m:ctrlPr>
+                          <a:rPr lang="en-US" sz="1100" i="1">
+                            <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                          </a:rPr>
+                        </m:ctrlPr>
+                      </m:sSubPr>
+                      <m:e>
+                        <m:r>
+                          <a:rPr lang="pt-PT" sz="1100" b="0" i="1">
+                            <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                          </a:rPr>
+                          <m:t>𝐻</m:t>
+                        </m:r>
+                      </m:e>
+                      <m:sub>
+                        <m:r>
+                          <a:rPr lang="pt-PT" sz="1100" b="0" i="1">
+                            <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                          </a:rPr>
+                          <m:t>0</m:t>
+                        </m:r>
+                      </m:sub>
+                    </m:sSub>
+                    <m:r>
+                      <a:rPr lang="pt-PT" sz="1100" b="0" i="1">
+                        <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                      </a:rPr>
+                      <m:t>: </m:t>
+                    </m:r>
+                    <m:sSub>
+                      <m:sSubPr>
+                        <m:ctrlPr>
+                          <a:rPr lang="pt-PT" sz="1100" b="0" i="1">
+                            <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                          </a:rPr>
+                        </m:ctrlPr>
+                      </m:sSubPr>
+                      <m:e>
+                        <m:r>
+                          <a:rPr lang="pt-PT" sz="1100" b="0" i="1">
+                            <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                            <a:ea typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                          </a:rPr>
+                          <m:t>𝜇</m:t>
+                        </m:r>
+                      </m:e>
+                      <m:sub>
+                        <m:r>
+                          <a:rPr lang="pt-PT" sz="1100" b="0" i="1">
+                            <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                          </a:rPr>
+                          <m:t>1</m:t>
+                        </m:r>
+                      </m:sub>
+                    </m:sSub>
+                    <m:r>
+                      <a:rPr lang="pt-PT" sz="1100" b="0" i="1">
+                        <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                      </a:rPr>
+                      <m:t>=</m:t>
+                    </m:r>
+                    <m:sSub>
+                      <m:sSubPr>
+                        <m:ctrlPr>
+                          <a:rPr lang="pt-PT" sz="1100" b="0" i="1">
+                            <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                          </a:rPr>
+                        </m:ctrlPr>
+                      </m:sSubPr>
+                      <m:e>
+                        <m:r>
+                          <a:rPr lang="pt-PT" sz="1100" b="0" i="1">
+                            <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                            <a:ea typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                          </a:rPr>
+                          <m:t>𝜇</m:t>
+                        </m:r>
+                      </m:e>
+                      <m:sub>
+                        <m:r>
+                          <a:rPr lang="pt-PT" sz="1100" b="0" i="1">
+                            <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                          </a:rPr>
+                          <m:t>2</m:t>
+                        </m:r>
+                      </m:sub>
+                    </m:sSub>
+                    <m:r>
+                      <a:rPr lang="pt-PT" sz="1100" b="0" i="1">
+                        <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                      </a:rPr>
+                      <m:t> </m:t>
+                    </m:r>
+                    <m:r>
+                      <a:rPr lang="pt-PT" sz="1100" b="0" i="1">
+                        <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                      </a:rPr>
+                      <m:t>𝑣𝑠</m:t>
+                    </m:r>
+                    <m:r>
+                      <a:rPr lang="pt-PT" sz="1100" b="0" i="1">
+                        <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                      </a:rPr>
+                      <m:t> </m:t>
+                    </m:r>
+                    <m:sSub>
+                      <m:sSubPr>
+                        <m:ctrlPr>
+                          <a:rPr lang="pt-PT" sz="1100" b="0" i="1">
+                            <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                          </a:rPr>
+                        </m:ctrlPr>
+                      </m:sSubPr>
+                      <m:e>
+                        <m:r>
+                          <a:rPr lang="pt-PT" sz="1100" b="0" i="1">
+                            <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                          </a:rPr>
+                          <m:t>𝐻</m:t>
+                        </m:r>
+                      </m:e>
+                      <m:sub>
+                        <m:r>
+                          <a:rPr lang="pt-PT" sz="1100" b="0" i="1">
+                            <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                          </a:rPr>
+                          <m:t>1</m:t>
+                        </m:r>
+                      </m:sub>
+                    </m:sSub>
+                    <m:r>
+                      <a:rPr lang="pt-PT" sz="1100" b="0" i="1">
+                        <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                      </a:rPr>
+                      <m:t>: </m:t>
+                    </m:r>
+                    <m:sSub>
+                      <m:sSubPr>
+                        <m:ctrlPr>
+                          <a:rPr lang="pt-PT" sz="1100" b="0" i="1">
+                            <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                          </a:rPr>
+                        </m:ctrlPr>
+                      </m:sSubPr>
+                      <m:e>
+                        <m:r>
+                          <a:rPr lang="pt-PT" sz="1100" b="0" i="1">
+                            <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                            <a:ea typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                          </a:rPr>
+                          <m:t>𝜇</m:t>
+                        </m:r>
+                      </m:e>
+                      <m:sub>
+                        <m:r>
+                          <a:rPr lang="pt-PT" sz="1100" b="0" i="1">
+                            <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                          </a:rPr>
+                          <m:t>1</m:t>
+                        </m:r>
+                      </m:sub>
+                    </m:sSub>
+                    <m:r>
+                      <a:rPr lang="pt-PT" sz="1100" b="0" i="1">
+                        <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                        <a:ea typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                      </a:rPr>
+                      <m:t>&lt;</m:t>
+                    </m:r>
+                    <m:sSub>
+                      <m:sSubPr>
+                        <m:ctrlPr>
+                          <a:rPr lang="pt-PT" sz="1100" b="0" i="1">
+                            <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                            <a:ea typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                          </a:rPr>
+                        </m:ctrlPr>
+                      </m:sSubPr>
+                      <m:e>
+                        <m:r>
+                          <a:rPr lang="pt-PT" sz="1100" b="0" i="1">
+                            <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                            <a:ea typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                          </a:rPr>
+                          <m:t>𝜇</m:t>
+                        </m:r>
+                      </m:e>
+                      <m:sub>
+                        <m:r>
+                          <a:rPr lang="pt-PT" sz="1100" b="0" i="1">
+                            <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                            <a:ea typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                          </a:rPr>
+                          <m:t>2</m:t>
+                        </m:r>
+                      </m:sub>
+                    </m:sSub>
+                    <m:r>
+                      <a:rPr lang="pt-PT" sz="1100" b="0" i="1">
+                        <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                        <a:ea typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                      </a:rPr>
+                      <m:t>, </m:t>
+                    </m:r>
+                    <m:r>
+                      <a:rPr lang="pt-PT" sz="1100" b="0" i="1">
+                        <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                        <a:ea typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                      </a:rPr>
+                      <m:t>𝑤h𝑒𝑟𝑒</m:t>
+                    </m:r>
+                    <m:r>
+                      <a:rPr lang="pt-PT" sz="1100" b="0" i="1">
+                        <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                        <a:ea typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                      </a:rPr>
+                      <m:t> </m:t>
+                    </m:r>
+                    <m:sSub>
+                      <m:sSubPr>
+                        <m:ctrlPr>
+                          <a:rPr lang="pt-PT" sz="1100" b="0" i="1">
+                            <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                            <a:ea typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                          </a:rPr>
+                        </m:ctrlPr>
+                      </m:sSubPr>
+                      <m:e>
+                        <m:r>
+                          <a:rPr lang="pt-PT" sz="1100" b="0" i="1">
+                            <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                            <a:ea typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                          </a:rPr>
+                          <m:t>𝜇</m:t>
+                        </m:r>
+                      </m:e>
+                      <m:sub>
+                        <m:r>
+                          <a:rPr lang="pt-PT" sz="1100" b="0" i="1">
+                            <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                            <a:ea typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                          </a:rPr>
+                          <m:t>1</m:t>
+                        </m:r>
+                      </m:sub>
+                    </m:sSub>
+                    <m:r>
+                      <a:rPr lang="pt-PT" sz="1100" b="0" i="1">
+                        <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                        <a:ea typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                      </a:rPr>
+                      <m:t> </m:t>
+                    </m:r>
+                    <m:r>
+                      <a:rPr lang="pt-PT" sz="1100" b="0" i="1">
+                        <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                        <a:ea typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                      </a:rPr>
+                      <m:t>𝑖𝑠</m:t>
+                    </m:r>
+                    <m:r>
+                      <a:rPr lang="pt-PT" sz="1100" b="0" i="1">
+                        <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                        <a:ea typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                      </a:rPr>
+                      <m:t> </m:t>
+                    </m:r>
+                    <m:r>
+                      <a:rPr lang="pt-PT" sz="1100" b="0" i="1">
+                        <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                        <a:ea typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                      </a:rPr>
+                      <m:t>𝑡h𝑒</m:t>
+                    </m:r>
+                    <m:r>
+                      <a:rPr lang="pt-PT" sz="1100" b="0" i="1">
+                        <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                        <a:ea typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                      </a:rPr>
+                      <m:t> </m:t>
+                    </m:r>
+                    <m:r>
+                      <a:rPr lang="pt-PT" sz="1100" b="0" i="1">
+                        <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                        <a:ea typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                      </a:rPr>
+                      <m:t>𝑚𝑒𝑎𝑛</m:t>
+                    </m:r>
+                    <m:r>
+                      <a:rPr lang="pt-PT" sz="1100" b="0" i="1">
+                        <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                        <a:ea typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                      </a:rPr>
+                      <m:t> </m:t>
+                    </m:r>
+                    <m:r>
+                      <a:rPr lang="pt-PT" sz="1100" b="0" i="1">
+                        <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                        <a:ea typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                      </a:rPr>
+                      <m:t>𝑓𝑜𝑟</m:t>
+                    </m:r>
+                    <m:r>
+                      <a:rPr lang="pt-PT" sz="1100" b="0" i="1">
+                        <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                        <a:ea typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                      </a:rPr>
+                      <m:t> </m:t>
+                    </m:r>
+                    <m:r>
+                      <a:rPr lang="pt-PT" sz="1100" b="0" i="1">
+                        <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                        <a:ea typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                      </a:rPr>
+                      <m:t>𝐺𝑃𝑇</m:t>
+                    </m:r>
+                    <m:r>
+                      <a:rPr lang="pt-PT" sz="1100" b="0" i="1">
+                        <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                        <a:ea typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                      </a:rPr>
+                      <m:t>−3.5 </m:t>
+                    </m:r>
+                    <m:r>
+                      <a:rPr lang="pt-PT" sz="1100" b="0" i="1">
+                        <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                        <a:ea typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                      </a:rPr>
+                      <m:t>𝑎𝑛𝑑</m:t>
+                    </m:r>
+                    <m:r>
+                      <a:rPr lang="pt-PT" sz="1100" b="0" i="1">
+                        <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                        <a:ea typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                      </a:rPr>
+                      <m:t> </m:t>
+                    </m:r>
+                    <m:sSub>
+                      <m:sSubPr>
+                        <m:ctrlPr>
+                          <a:rPr lang="pt-PT" sz="1100" b="0" i="1">
+                            <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                            <a:ea typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                          </a:rPr>
+                        </m:ctrlPr>
+                      </m:sSubPr>
+                      <m:e>
+                        <m:r>
+                          <a:rPr lang="pt-PT" sz="1100" b="0" i="1">
+                            <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                            <a:ea typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                          </a:rPr>
+                          <m:t>𝜇</m:t>
+                        </m:r>
+                      </m:e>
+                      <m:sub>
+                        <m:r>
+                          <a:rPr lang="pt-PT" sz="1100" b="0" i="1">
+                            <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                            <a:ea typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                          </a:rPr>
+                          <m:t>2</m:t>
+                        </m:r>
+                      </m:sub>
+                    </m:sSub>
+                    <m:r>
+                      <a:rPr lang="pt-PT" sz="1100" b="0" i="1">
+                        <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                        <a:ea typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                      </a:rPr>
+                      <m:t>𝑡h𝑒</m:t>
+                    </m:r>
+                    <m:r>
+                      <a:rPr lang="pt-PT" sz="1100" b="0" i="1">
+                        <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                        <a:ea typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                      </a:rPr>
+                      <m:t> </m:t>
+                    </m:r>
+                    <m:r>
+                      <a:rPr lang="pt-PT" sz="1100" b="0" i="1">
+                        <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                        <a:ea typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                      </a:rPr>
+                      <m:t>𝑚𝑒𝑎𝑛</m:t>
+                    </m:r>
+                    <m:r>
+                      <a:rPr lang="pt-PT" sz="1100" b="0" i="1">
+                        <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                        <a:ea typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                      </a:rPr>
+                      <m:t> </m:t>
+                    </m:r>
+                    <m:r>
+                      <a:rPr lang="pt-PT" sz="1100" b="0" i="1">
+                        <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                        <a:ea typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                      </a:rPr>
+                      <m:t>𝑓𝑜𝑟</m:t>
+                    </m:r>
+                    <m:r>
+                      <a:rPr lang="pt-PT" sz="1100" b="0" i="1">
+                        <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                        <a:ea typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                      </a:rPr>
+                      <m:t> </m:t>
+                    </m:r>
+                    <m:r>
+                      <a:rPr lang="pt-PT" sz="1100" b="0" i="1">
+                        <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                        <a:ea typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                      </a:rPr>
+                      <m:t>𝐺𝑃𝑇</m:t>
+                    </m:r>
+                    <m:r>
+                      <a:rPr lang="pt-PT" sz="1100" b="0" i="1">
+                        <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                        <a:ea typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                      </a:rPr>
+                      <m:t>−4.</m:t>
+                    </m:r>
+                  </m:oMath>
+                </m:oMathPara>
+              </a14:m>
+              <a:endParaRPr lang="pt-PT" sz="1100" b="0" i="1">
+                <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                <a:ea typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+              </a:endParaRPr>
+            </a:p>
+            <a:p>
+              <a:pPr/>
+              <a14:m>
+                <m:oMathPara xmlns:m="http://schemas.openxmlformats.org/officeDocument/2006/math">
+                  <m:oMathParaPr>
+                    <m:jc m:val="centerGroup"/>
+                  </m:oMathParaPr>
+                  <m:oMath xmlns:m="http://schemas.openxmlformats.org/officeDocument/2006/math">
+                    <m:r>
+                      <a:rPr lang="pt-PT" sz="1100" b="0" i="1">
+                        <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                        <a:ea typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                      </a:rPr>
+                      <m:t>𝑡𝑒𝑠𝑡</m:t>
+                    </m:r>
+                    <m:r>
+                      <a:rPr lang="pt-PT" sz="1100" b="0" i="1">
+                        <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                        <a:ea typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                      </a:rPr>
+                      <m:t> </m:t>
+                    </m:r>
+                    <m:r>
+                      <a:rPr lang="pt-PT" sz="1100" b="0" i="1">
+                        <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                        <a:ea typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                      </a:rPr>
+                      <m:t>𝑠𝑡𝑎𝑡𝑖𝑠𝑡𝑖𝑐</m:t>
+                    </m:r>
+                    <m:r>
+                      <a:rPr lang="pt-PT" sz="1100" b="0" i="1">
+                        <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                        <a:ea typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                      </a:rPr>
+                      <m:t>:</m:t>
+                    </m:r>
+                    <m:r>
+                      <a:rPr lang="pt-PT" sz="1100" b="0" i="1">
+                        <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                        <a:ea typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                      </a:rPr>
+                      <m:t>𝑧</m:t>
+                    </m:r>
+                    <m:r>
+                      <a:rPr lang="pt-PT" sz="1100" b="0" i="1">
+                        <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                        <a:ea typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                      </a:rPr>
+                      <m:t>= </m:t>
+                    </m:r>
+                    <m:f>
+                      <m:fPr>
+                        <m:ctrlPr>
+                          <a:rPr lang="pt-PT" sz="1100" b="0" i="1">
+                            <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                            <a:ea typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                          </a:rPr>
+                        </m:ctrlPr>
+                      </m:fPr>
+                      <m:num>
+                        <m:sSub>
+                          <m:sSubPr>
+                            <m:ctrlPr>
+                              <a:rPr lang="pt-PT" sz="1100" b="0" i="1">
+                                <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                                <a:ea typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                              </a:rPr>
+                            </m:ctrlPr>
+                          </m:sSubPr>
+                          <m:e>
+                            <m:r>
+                              <a:rPr lang="pt-PT" sz="1100" b="0" i="1">
+                                <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                                <a:ea typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                              </a:rPr>
+                              <m:t>𝜇</m:t>
+                            </m:r>
+                          </m:e>
+                          <m:sub>
+                            <m:r>
+                              <a:rPr lang="pt-PT" sz="1100" b="0" i="1">
+                                <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                                <a:ea typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                              </a:rPr>
+                              <m:t>1</m:t>
+                            </m:r>
+                          </m:sub>
+                        </m:sSub>
+                        <m:r>
+                          <a:rPr lang="pt-PT" sz="1100" b="0" i="1">
+                            <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                            <a:ea typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                          </a:rPr>
+                          <m:t>−</m:t>
+                        </m:r>
+                        <m:sSub>
+                          <m:sSubPr>
+                            <m:ctrlPr>
+                              <a:rPr lang="pt-PT" sz="1100" b="0" i="1">
+                                <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                                <a:ea typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                              </a:rPr>
+                            </m:ctrlPr>
+                          </m:sSubPr>
+                          <m:e>
+                            <m:r>
+                              <a:rPr lang="pt-PT" sz="1100" b="0" i="1">
+                                <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                                <a:ea typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                              </a:rPr>
+                              <m:t>𝜇</m:t>
+                            </m:r>
+                          </m:e>
+                          <m:sub>
+                            <m:r>
+                              <a:rPr lang="pt-PT" sz="1100" b="0" i="1">
+                                <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                                <a:ea typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                              </a:rPr>
+                              <m:t>2</m:t>
+                            </m:r>
+                          </m:sub>
+                        </m:sSub>
+                      </m:num>
+                      <m:den>
+                        <m:rad>
+                          <m:radPr>
+                            <m:degHide m:val="on"/>
+                            <m:ctrlPr>
+                              <a:rPr lang="pt-PT" sz="1100" b="0" i="1">
+                                <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                                <a:ea typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                              </a:rPr>
+                            </m:ctrlPr>
+                          </m:radPr>
+                          <m:deg/>
+                          <m:e>
+                            <m:f>
+                              <m:fPr>
+                                <m:ctrlPr>
+                                  <a:rPr lang="pt-PT" sz="1100" b="0" i="1">
+                                    <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                                    <a:ea typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                                  </a:rPr>
+                                </m:ctrlPr>
+                              </m:fPr>
+                              <m:num>
+                                <m:sSubSup>
+                                  <m:sSubSupPr>
+                                    <m:ctrlPr>
+                                      <a:rPr lang="pt-PT" sz="1100" b="0" i="1">
+                                        <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                                        <a:ea typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                                      </a:rPr>
+                                    </m:ctrlPr>
+                                  </m:sSubSupPr>
+                                  <m:e>
+                                    <m:r>
+                                      <a:rPr lang="pt-PT" sz="1100" b="0" i="1">
+                                        <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                                        <a:ea typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                                      </a:rPr>
+                                      <m:t>𝜎</m:t>
+                                    </m:r>
+                                  </m:e>
+                                  <m:sub>
+                                    <m:r>
+                                      <a:rPr lang="pt-PT" sz="1100" b="0" i="1">
+                                        <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                                        <a:ea typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                                      </a:rPr>
+                                      <m:t>1</m:t>
+                                    </m:r>
+                                  </m:sub>
+                                  <m:sup>
+                                    <m:r>
+                                      <a:rPr lang="pt-PT" sz="1100" b="0" i="1">
+                                        <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                                        <a:ea typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                                      </a:rPr>
+                                      <m:t>2</m:t>
+                                    </m:r>
+                                  </m:sup>
+                                </m:sSubSup>
+                              </m:num>
+                              <m:den>
+                                <m:sSub>
+                                  <m:sSubPr>
+                                    <m:ctrlPr>
+                                      <a:rPr lang="pt-PT" sz="1100" b="0" i="1">
+                                        <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                                        <a:ea typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                                      </a:rPr>
+                                    </m:ctrlPr>
+                                  </m:sSubPr>
+                                  <m:e>
+                                    <m:r>
+                                      <a:rPr lang="pt-PT" sz="1100" b="0" i="1">
+                                        <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                                        <a:ea typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                                      </a:rPr>
+                                      <m:t>𝑛</m:t>
+                                    </m:r>
+                                  </m:e>
+                                  <m:sub>
+                                    <m:r>
+                                      <a:rPr lang="pt-PT" sz="1100" b="0" i="1">
+                                        <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                                        <a:ea typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                                      </a:rPr>
+                                      <m:t>1</m:t>
+                                    </m:r>
+                                  </m:sub>
+                                </m:sSub>
+                              </m:den>
+                            </m:f>
+                            <m:r>
+                              <a:rPr lang="pt-PT" sz="1100" b="0" i="1">
+                                <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                                <a:ea typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                              </a:rPr>
+                              <m:t>+ </m:t>
+                            </m:r>
+                            <m:f>
+                              <m:fPr>
+                                <m:ctrlPr>
+                                  <a:rPr lang="pt-PT" sz="1100" b="0" i="1">
+                                    <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                                    <a:ea typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                                  </a:rPr>
+                                </m:ctrlPr>
+                              </m:fPr>
+                              <m:num>
+                                <m:sSubSup>
+                                  <m:sSubSupPr>
+                                    <m:ctrlPr>
+                                      <a:rPr lang="pt-PT" sz="1100" b="0" i="1">
+                                        <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                                        <a:ea typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                                      </a:rPr>
+                                    </m:ctrlPr>
+                                  </m:sSubSupPr>
+                                  <m:e>
+                                    <m:r>
+                                      <a:rPr lang="pt-PT" sz="1100" b="0" i="1">
+                                        <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                                        <a:ea typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                                      </a:rPr>
+                                      <m:t>𝜎</m:t>
+                                    </m:r>
+                                  </m:e>
+                                  <m:sub>
+                                    <m:r>
+                                      <a:rPr lang="pt-PT" sz="1100" b="0" i="1">
+                                        <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                                        <a:ea typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                                      </a:rPr>
+                                      <m:t>2</m:t>
+                                    </m:r>
+                                  </m:sub>
+                                  <m:sup>
+                                    <m:r>
+                                      <a:rPr lang="pt-PT" sz="1100" b="0" i="1">
+                                        <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                                        <a:ea typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                                      </a:rPr>
+                                      <m:t>2</m:t>
+                                    </m:r>
+                                  </m:sup>
+                                </m:sSubSup>
+                              </m:num>
+                              <m:den>
+                                <m:sSub>
+                                  <m:sSubPr>
+                                    <m:ctrlPr>
+                                      <a:rPr lang="pt-PT" sz="1100" b="0" i="1">
+                                        <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                                        <a:ea typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                                      </a:rPr>
+                                    </m:ctrlPr>
+                                  </m:sSubPr>
+                                  <m:e>
+                                    <m:r>
+                                      <a:rPr lang="pt-PT" sz="1100" b="0" i="1">
+                                        <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                                        <a:ea typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                                      </a:rPr>
+                                      <m:t>𝑛</m:t>
+                                    </m:r>
+                                  </m:e>
+                                  <m:sub>
+                                    <m:r>
+                                      <a:rPr lang="pt-PT" sz="1100" b="0" i="1">
+                                        <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                                        <a:ea typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                                      </a:rPr>
+                                      <m:t>2</m:t>
+                                    </m:r>
+                                  </m:sub>
+                                </m:sSub>
+                              </m:den>
+                            </m:f>
+                          </m:e>
+                        </m:rad>
+                      </m:den>
+                    </m:f>
+                    <m:r>
+                      <a:rPr lang="pt-PT" sz="1100" b="0" i="1">
+                        <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                        <a:ea typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                      </a:rPr>
+                      <m:t> </m:t>
+                    </m:r>
+                    <m:r>
+                      <a:rPr lang="el-GR" sz="1100" b="0" i="1">
+                        <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                        <a:ea typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                      </a:rPr>
+                      <m:t>~</m:t>
+                    </m:r>
+                    <m:r>
+                      <a:rPr lang="pt-PT" sz="1100" b="0" i="1">
+                        <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                        <a:ea typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                      </a:rPr>
+                      <m:t> </m:t>
+                    </m:r>
+                    <m:r>
+                      <a:rPr lang="pt-PT" sz="1100" b="0" i="1">
+                        <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                        <a:ea typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                      </a:rPr>
+                      <m:t>𝑁</m:t>
+                    </m:r>
+                    <m:r>
+                      <a:rPr lang="pt-PT" sz="1100" b="0" i="1">
+                        <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                        <a:ea typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                      </a:rPr>
+                      <m:t>(0,1), </m:t>
+                    </m:r>
+                    <m:r>
+                      <a:rPr lang="pt-PT" sz="1100" b="0" i="1">
+                        <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                        <a:ea typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                      </a:rPr>
+                      <m:t>𝑢𝑛𝑑𝑒𝑟</m:t>
+                    </m:r>
+                    <m:r>
+                      <a:rPr lang="pt-PT" sz="1100" b="0" i="1">
+                        <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                        <a:ea typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                      </a:rPr>
+                      <m:t> </m:t>
+                    </m:r>
+                    <m:sSub>
+                      <m:sSubPr>
+                        <m:ctrlPr>
+                          <a:rPr lang="pt-PT" sz="1100" b="0" i="1">
+                            <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                            <a:ea typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                          </a:rPr>
+                        </m:ctrlPr>
+                      </m:sSubPr>
+                      <m:e>
+                        <m:r>
+                          <a:rPr lang="pt-PT" sz="1100" b="0" i="1">
+                            <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                            <a:ea typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                          </a:rPr>
+                          <m:t>𝐻</m:t>
+                        </m:r>
+                      </m:e>
+                      <m:sub>
+                        <m:r>
+                          <a:rPr lang="pt-PT" sz="1100" b="0" i="1">
+                            <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                            <a:ea typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                          </a:rPr>
+                          <m:t>0 </m:t>
+                        </m:r>
+                      </m:sub>
+                    </m:sSub>
+                    <m:r>
+                      <a:rPr lang="pt-PT" sz="1100" b="0" i="1">
+                        <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                        <a:ea typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                      </a:rPr>
+                      <m:t>𝑤h𝑒𝑟𝑒</m:t>
+                    </m:r>
+                    <m:r>
+                      <a:rPr lang="pt-PT" sz="1100" b="0" i="1">
+                        <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                        <a:ea typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                      </a:rPr>
+                      <m:t> </m:t>
+                    </m:r>
+                    <m:sSub>
+                      <m:sSubPr>
+                        <m:ctrlPr>
+                          <a:rPr lang="pt-PT" sz="1100" b="0" i="1">
+                            <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                            <a:ea typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                          </a:rPr>
+                        </m:ctrlPr>
+                      </m:sSubPr>
+                      <m:e>
+                        <m:r>
+                          <a:rPr lang="pt-PT" sz="1100" b="0" i="1">
+                            <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                            <a:ea typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                          </a:rPr>
+                          <m:t>𝜎</m:t>
+                        </m:r>
+                      </m:e>
+                      <m:sub>
+                        <m:r>
+                          <a:rPr lang="pt-PT" sz="1100" b="0" i="1">
+                            <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                            <a:ea typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                          </a:rPr>
+                          <m:t>1</m:t>
+                        </m:r>
+                      </m:sub>
+                    </m:sSub>
+                    <m:r>
+                      <a:rPr lang="pt-PT" sz="1100" b="0" i="1">
+                        <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                        <a:ea typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                      </a:rPr>
+                      <m:t>𝑖𝑠</m:t>
+                    </m:r>
+                    <m:r>
+                      <a:rPr lang="pt-PT" sz="1100" b="0" i="1">
+                        <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                        <a:ea typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                      </a:rPr>
+                      <m:t> </m:t>
+                    </m:r>
+                    <m:r>
+                      <a:rPr lang="pt-PT" sz="1100" b="0" i="1">
+                        <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                        <a:ea typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                      </a:rPr>
+                      <m:t>𝑡h𝑒</m:t>
+                    </m:r>
+                    <m:r>
+                      <a:rPr lang="pt-PT" sz="1100" b="0" i="1">
+                        <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                        <a:ea typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                      </a:rPr>
+                      <m:t> </m:t>
+                    </m:r>
+                    <m:r>
+                      <a:rPr lang="pt-PT" sz="1100" b="0" i="1">
+                        <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                        <a:ea typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                      </a:rPr>
+                      <m:t>𝑠𝑡𝑑</m:t>
+                    </m:r>
+                    <m:r>
+                      <a:rPr lang="pt-PT" sz="1100" b="0" i="1">
+                        <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                        <a:ea typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                      </a:rPr>
+                      <m:t>. </m:t>
+                    </m:r>
+                    <m:r>
+                      <a:rPr lang="pt-PT" sz="1100" b="0" i="1">
+                        <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                        <a:ea typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                      </a:rPr>
+                      <m:t>𝑑𝑒𝑣</m:t>
+                    </m:r>
+                    <m:r>
+                      <a:rPr lang="pt-PT" sz="1100" b="0" i="1">
+                        <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                        <a:ea typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                      </a:rPr>
+                      <m:t>. </m:t>
+                    </m:r>
+                    <m:r>
+                      <a:rPr lang="pt-PT" sz="1100" b="0" i="1">
+                        <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                        <a:ea typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                      </a:rPr>
+                      <m:t>𝑓𝑜𝑟</m:t>
+                    </m:r>
+                    <m:r>
+                      <a:rPr lang="pt-PT" sz="1100" b="0" i="1">
+                        <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                        <a:ea typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                      </a:rPr>
+                      <m:t> </m:t>
+                    </m:r>
+                    <m:r>
+                      <a:rPr lang="pt-PT" sz="1100" b="0" i="1">
+                        <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                        <a:ea typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                      </a:rPr>
+                      <m:t>𝐺𝑃𝑇</m:t>
+                    </m:r>
+                    <m:r>
+                      <a:rPr lang="pt-PT" sz="1100" b="0" i="1">
+                        <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                        <a:ea typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                      </a:rPr>
+                      <m:t>−3.5, </m:t>
+                    </m:r>
+                    <m:sSub>
+                      <m:sSubPr>
+                        <m:ctrlPr>
+                          <a:rPr lang="pt-PT" sz="1100" b="0" i="1">
+                            <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                            <a:ea typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                          </a:rPr>
+                        </m:ctrlPr>
+                      </m:sSubPr>
+                      <m:e>
+                        <m:r>
+                          <a:rPr lang="pt-PT" sz="1100" b="0" i="1">
+                            <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                            <a:ea typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                          </a:rPr>
+                          <m:t>𝜎</m:t>
+                        </m:r>
+                      </m:e>
+                      <m:sub>
+                        <m:r>
+                          <a:rPr lang="pt-PT" sz="1100" b="0" i="1">
+                            <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                            <a:ea typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                          </a:rPr>
+                          <m:t>2</m:t>
+                        </m:r>
+                      </m:sub>
+                    </m:sSub>
+                    <m:r>
+                      <a:rPr lang="pt-PT" sz="1100" b="0" i="1">
+                        <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                        <a:ea typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                      </a:rPr>
+                      <m:t>𝑡h𝑒</m:t>
+                    </m:r>
+                    <m:r>
+                      <a:rPr lang="pt-PT" sz="1100" b="0" i="1">
+                        <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                        <a:ea typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                      </a:rPr>
+                      <m:t> </m:t>
+                    </m:r>
+                    <m:r>
+                      <a:rPr lang="pt-PT" sz="1100" b="0" i="1">
+                        <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                        <a:ea typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                      </a:rPr>
+                      <m:t>𝑠𝑡𝑑</m:t>
+                    </m:r>
+                    <m:r>
+                      <a:rPr lang="pt-PT" sz="1100" b="0" i="1">
+                        <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                        <a:ea typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                      </a:rPr>
+                      <m:t>. </m:t>
+                    </m:r>
+                    <m:r>
+                      <a:rPr lang="pt-PT" sz="1100" b="0" i="1">
+                        <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                        <a:ea typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                      </a:rPr>
+                      <m:t>𝑑𝑒𝑣</m:t>
+                    </m:r>
+                    <m:r>
+                      <a:rPr lang="pt-PT" sz="1100" b="0" i="1">
+                        <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                        <a:ea typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                      </a:rPr>
+                      <m:t>. </m:t>
+                    </m:r>
+                    <m:r>
+                      <a:rPr lang="pt-PT" sz="1100" b="0" i="1">
+                        <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                        <a:ea typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                      </a:rPr>
+                      <m:t>𝑓𝑜𝑟</m:t>
+                    </m:r>
+                    <m:r>
+                      <a:rPr lang="pt-PT" sz="1100" b="0" i="1">
+                        <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                        <a:ea typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                      </a:rPr>
+                      <m:t> </m:t>
+                    </m:r>
+                    <m:r>
+                      <a:rPr lang="pt-PT" sz="1100" b="0" i="1">
+                        <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                        <a:ea typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                      </a:rPr>
+                      <m:t>𝐺𝑃𝑇</m:t>
+                    </m:r>
+                    <m:r>
+                      <a:rPr lang="pt-PT" sz="1100" b="0" i="1">
+                        <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                        <a:ea typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                      </a:rPr>
+                      <m:t>−4 </m:t>
+                    </m:r>
+                    <m:r>
+                      <a:rPr lang="pt-PT" sz="1100" b="0" i="1">
+                        <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                        <a:ea typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                      </a:rPr>
+                      <m:t>𝑎𝑛𝑑</m:t>
+                    </m:r>
+                    <m:r>
+                      <a:rPr lang="pt-PT" sz="1100" b="0" i="1">
+                        <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                        <a:ea typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                      </a:rPr>
+                      <m:t> </m:t>
+                    </m:r>
+                    <m:sSub>
+                      <m:sSubPr>
+                        <m:ctrlPr>
+                          <a:rPr lang="pt-PT" sz="1100" b="0" i="1">
+                            <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                            <a:ea typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                          </a:rPr>
+                        </m:ctrlPr>
+                      </m:sSubPr>
+                      <m:e>
+                        <m:r>
+                          <a:rPr lang="pt-PT" sz="1100" b="0" i="1">
+                            <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                            <a:ea typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                          </a:rPr>
+                          <m:t>𝑛</m:t>
+                        </m:r>
+                      </m:e>
+                      <m:sub>
+                        <m:r>
+                          <a:rPr lang="pt-PT" sz="1100" b="0" i="1">
+                            <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                            <a:ea typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                          </a:rPr>
+                          <m:t>1</m:t>
+                        </m:r>
+                      </m:sub>
+                    </m:sSub>
+                    <m:r>
+                      <a:rPr lang="pt-PT" sz="1100" b="0" i="1">
+                        <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                        <a:ea typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                      </a:rPr>
+                      <m:t>𝑎𝑛𝑑</m:t>
+                    </m:r>
+                    <m:r>
+                      <a:rPr lang="pt-PT" sz="1100" b="0" i="1">
+                        <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                        <a:ea typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                      </a:rPr>
+                      <m:t> </m:t>
+                    </m:r>
+                    <m:sSub>
+                      <m:sSubPr>
+                        <m:ctrlPr>
+                          <a:rPr lang="pt-PT" sz="1100" b="0" i="1">
+                            <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                            <a:ea typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                          </a:rPr>
+                        </m:ctrlPr>
+                      </m:sSubPr>
+                      <m:e>
+                        <m:r>
+                          <a:rPr lang="pt-PT" sz="1100" b="0" i="1">
+                            <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                            <a:ea typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                          </a:rPr>
+                          <m:t>𝑛</m:t>
+                        </m:r>
+                      </m:e>
+                      <m:sub>
+                        <m:r>
+                          <a:rPr lang="pt-PT" sz="1100" b="0" i="1">
+                            <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                            <a:ea typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                          </a:rPr>
+                          <m:t>2</m:t>
+                        </m:r>
+                      </m:sub>
+                    </m:sSub>
+                    <m:r>
+                      <a:rPr lang="pt-PT" sz="1100" b="0" i="1">
+                        <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                        <a:ea typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                      </a:rPr>
+                      <m:t> </m:t>
+                    </m:r>
+                    <m:r>
+                      <a:rPr lang="pt-PT" sz="1100" b="0" i="1">
+                        <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                        <a:ea typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                      </a:rPr>
+                      <m:t>𝑡h𝑒</m:t>
+                    </m:r>
+                    <m:r>
+                      <a:rPr lang="pt-PT" sz="1100" b="0" i="1">
+                        <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                        <a:ea typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                      </a:rPr>
+                      <m:t> </m:t>
+                    </m:r>
+                    <m:r>
+                      <a:rPr lang="pt-PT" sz="1100" b="0" i="1">
+                        <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                        <a:ea typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                      </a:rPr>
+                      <m:t>𝑛𝑢𝑚𝑏𝑒𝑟</m:t>
+                    </m:r>
+                    <m:r>
+                      <a:rPr lang="pt-PT" sz="1100" b="0" i="1">
+                        <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                        <a:ea typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                      </a:rPr>
+                      <m:t> </m:t>
+                    </m:r>
+                    <m:r>
+                      <a:rPr lang="pt-PT" sz="1100" b="0" i="1">
+                        <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                        <a:ea typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                      </a:rPr>
+                      <m:t>𝑜𝑓</m:t>
+                    </m:r>
+                    <m:r>
+                      <a:rPr lang="pt-PT" sz="1100" b="0" i="1">
+                        <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                        <a:ea typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                      </a:rPr>
+                      <m:t> </m:t>
+                    </m:r>
+                    <m:r>
+                      <a:rPr lang="pt-PT" sz="1100" b="0" i="1">
+                        <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                        <a:ea typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                      </a:rPr>
+                      <m:t>𝑜𝑏𝑠𝑒𝑟𝑣𝑎𝑡𝑖𝑜𝑛𝑠</m:t>
+                    </m:r>
+                    <m:r>
+                      <a:rPr lang="pt-PT" sz="1100" b="0" i="1">
+                        <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                        <a:ea typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                      </a:rPr>
+                      <m:t> </m:t>
+                    </m:r>
+                    <m:r>
+                      <a:rPr lang="pt-PT" sz="1100" b="0" i="1">
+                        <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                        <a:ea typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                      </a:rPr>
+                      <m:t>𝑖𝑛</m:t>
+                    </m:r>
+                    <m:r>
+                      <a:rPr lang="pt-PT" sz="1100" b="0" i="1">
+                        <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                        <a:ea typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                      </a:rPr>
+                      <m:t> </m:t>
+                    </m:r>
+                    <m:r>
+                      <a:rPr lang="pt-PT" sz="1100" b="0" i="1">
+                        <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                        <a:ea typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                      </a:rPr>
+                      <m:t>𝐺𝑃𝑇</m:t>
+                    </m:r>
+                    <m:r>
+                      <a:rPr lang="pt-PT" sz="1100" b="0" i="1">
+                        <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                        <a:ea typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                      </a:rPr>
+                      <m:t>−3.5 </m:t>
+                    </m:r>
+                    <m:r>
+                      <a:rPr lang="pt-PT" sz="1100" b="0" i="1">
+                        <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                        <a:ea typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                      </a:rPr>
+                      <m:t>𝑎𝑛𝑑</m:t>
+                    </m:r>
+                    <m:r>
+                      <a:rPr lang="pt-PT" sz="1100" b="0" i="1">
+                        <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                        <a:ea typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                      </a:rPr>
+                      <m:t> </m:t>
+                    </m:r>
+                    <m:r>
+                      <a:rPr lang="pt-PT" sz="1100" b="0" i="1">
+                        <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                        <a:ea typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                      </a:rPr>
+                      <m:t>𝐺𝑃𝑇</m:t>
+                    </m:r>
+                    <m:r>
+                      <a:rPr lang="pt-PT" sz="1100" b="0" i="1">
+                        <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                        <a:ea typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                      </a:rPr>
+                      <m:t>−4 </m:t>
+                    </m:r>
+                    <m:r>
+                      <a:rPr lang="pt-PT" sz="1100" b="0" i="1">
+                        <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                        <a:ea typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                      </a:rPr>
+                      <m:t>𝑟𝑒𝑠𝑝𝑒𝑐𝑡𝑖𝑣𝑒𝑙𝑦</m:t>
+                    </m:r>
+                    <m:r>
+                      <a:rPr lang="pt-PT" sz="1100" b="0" i="1">
+                        <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                        <a:ea typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                      </a:rPr>
+                      <m:t>.</m:t>
+                    </m:r>
+                  </m:oMath>
+                </m:oMathPara>
+              </a14:m>
+              <a:endParaRPr lang="en-US" sz="1100"/>
+            </a:p>
+            <a:p>
+              <a:r>
+                <a:rPr lang="en-US" sz="1100"/>
+                <a:t>If the level</a:t>
+              </a:r>
+              <a:r>
+                <a:rPr lang="en-US" sz="1100" baseline="0"/>
+                <a:t> of confidence is higher than the p-value then we have statistical evidence that GPT-3.5 is less effective than GPT-4.</a:t>
+              </a:r>
+              <a:r>
+                <a:rPr lang="en-US" sz="1100"/>
+                <a:t> 	</a:t>
+              </a:r>
+            </a:p>
+          </xdr:txBody>
+        </xdr:sp>
+      </mc:Choice>
+      <mc:Fallback xmlns="">
+        <xdr:sp macro="" textlink="">
+          <xdr:nvSpPr>
+            <xdr:cNvPr id="3" name="TextBox 2">
+              <a:extLst>
+                <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{541A70C8-E75C-4356-8A10-6F17029E0DDB}"/>
+                </a:ext>
+              </a:extLst>
+            </xdr:cNvPr>
+            <xdr:cNvSpPr txBox="1"/>
+          </xdr:nvSpPr>
+          <xdr:spPr>
+            <a:xfrm>
+              <a:off x="457200" y="3162300"/>
+              <a:ext cx="9302750" cy="2171700"/>
+            </a:xfrm>
+            <a:prstGeom prst="rect">
+              <a:avLst/>
+            </a:prstGeom>
+            <a:solidFill>
+              <a:schemeClr val="lt1"/>
+            </a:solidFill>
+            <a:ln w="12700" cmpd="sng">
+              <a:solidFill>
+                <a:sysClr val="windowText" lastClr="000000"/>
+              </a:solidFill>
+            </a:ln>
+          </xdr:spPr>
+          <xdr:style>
+            <a:lnRef idx="0">
+              <a:scrgbClr r="0" g="0" b="0"/>
+            </a:lnRef>
+            <a:fillRef idx="0">
+              <a:scrgbClr r="0" g="0" b="0"/>
+            </a:fillRef>
+            <a:effectRef idx="0">
+              <a:scrgbClr r="0" g="0" b="0"/>
+            </a:effectRef>
+            <a:fontRef idx="minor">
+              <a:schemeClr val="dk1"/>
+            </a:fontRef>
+          </xdr:style>
+          <xdr:txBody>
+            <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="square" rtlCol="0" anchor="t"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:r>
+                <a:rPr lang="en-US" sz="1100" b="1"/>
+                <a:t>Theory</a:t>
+              </a:r>
+              <a:r>
+                <a:rPr lang="en-US" sz="1100" b="1" baseline="0"/>
+                <a:t> behind hypothesis test:</a:t>
+              </a:r>
+            </a:p>
+            <a:p>
+              <a:r>
+                <a:rPr lang="en-US" sz="1100"/>
+                <a:t>To</a:t>
+              </a:r>
+              <a:r>
+                <a:rPr lang="en-US" sz="1100" baseline="0"/>
+                <a:t> test if GPT-4 is better than GPT-3.5, we can test the following hypothesis:</a:t>
+              </a:r>
+            </a:p>
+            <a:p>
+              <a:pPr/>
+              <a:r>
+                <a:rPr lang="pt-PT" sz="1100" b="0" i="0">
+                  <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                </a:rPr>
+                <a:t>𝐻</a:t>
+              </a:r>
+              <a:r>
+                <a:rPr lang="en-US" sz="1100" b="0" i="0">
+                  <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                </a:rPr>
+                <a:t>_</a:t>
+              </a:r>
+              <a:r>
+                <a:rPr lang="pt-PT" sz="1100" b="0" i="0">
+                  <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                </a:rPr>
+                <a:t>0: </a:t>
+              </a:r>
+              <a:r>
+                <a:rPr lang="pt-PT" sz="1100" b="0" i="0">
+                  <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                  <a:ea typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                </a:rPr>
+                <a:t>𝜇_</a:t>
+              </a:r>
+              <a:r>
+                <a:rPr lang="pt-PT" sz="1100" b="0" i="0">
+                  <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                </a:rPr>
+                <a:t>1=</a:t>
+              </a:r>
+              <a:r>
+                <a:rPr lang="pt-PT" sz="1100" b="0" i="0">
+                  <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                  <a:ea typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                </a:rPr>
+                <a:t>𝜇_</a:t>
+              </a:r>
+              <a:r>
+                <a:rPr lang="pt-PT" sz="1100" b="0" i="0">
+                  <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                </a:rPr>
+                <a:t>2  𝑣𝑠 𝐻_1: </a:t>
+              </a:r>
+              <a:r>
+                <a:rPr lang="pt-PT" sz="1100" b="0" i="0">
+                  <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                  <a:ea typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                </a:rPr>
+                <a:t>𝜇_</a:t>
+              </a:r>
+              <a:r>
+                <a:rPr lang="pt-PT" sz="1100" b="0" i="0">
+                  <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                </a:rPr>
+                <a:t>1</a:t>
+              </a:r>
+              <a:r>
+                <a:rPr lang="pt-PT" sz="1100" b="0" i="0">
+                  <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                  <a:ea typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                </a:rPr>
+                <a:t>&lt;𝜇_2, 𝑤ℎ𝑒𝑟𝑒 𝜇_1  𝑖𝑠 𝑡ℎ𝑒 𝑚𝑒𝑎𝑛 𝑓𝑜𝑟 𝐺𝑃𝑇−3.5 𝑎𝑛𝑑 𝜇_2 𝑡ℎ𝑒 𝑚𝑒𝑎𝑛 𝑓𝑜𝑟 𝐺𝑃𝑇−4.</a:t>
+              </a:r>
+              <a:endParaRPr lang="pt-PT" sz="1100" b="0" i="1">
+                <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                <a:ea typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+              </a:endParaRPr>
+            </a:p>
+            <a:p>
+              <a:pPr/>
+              <a:r>
+                <a:rPr lang="pt-PT" sz="1100" b="0" i="0">
+                  <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                  <a:ea typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                </a:rPr>
+                <a:t>𝑡𝑒𝑠𝑡 𝑠𝑡𝑎𝑡𝑖𝑠𝑡𝑖𝑐:𝑧=  (𝜇_1−𝜇_2)/√((𝜎_1^2)/𝑛_1 + (𝜎_2^2)/𝑛_2 )  </a:t>
+              </a:r>
+              <a:r>
+                <a:rPr lang="el-GR" sz="1100" b="0" i="0">
+                  <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                  <a:ea typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                </a:rPr>
+                <a:t>~</a:t>
+              </a:r>
+              <a:r>
+                <a:rPr lang="pt-PT" sz="1100" b="0" i="0">
+                  <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                  <a:ea typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                </a:rPr>
+                <a:t> 𝑁(0,1), 𝑢𝑛𝑑𝑒𝑟 𝐻_(0 ) 𝑤ℎ𝑒𝑟𝑒 𝜎_1 𝑖𝑠 𝑡ℎ𝑒 𝑠𝑡𝑑. 𝑑𝑒𝑣. 𝑓𝑜𝑟 𝐺𝑃𝑇−3.5, 𝜎_2 𝑡ℎ𝑒 𝑠𝑡𝑑. 𝑑𝑒𝑣. 𝑓𝑜𝑟 𝐺𝑃𝑇−4 𝑎𝑛𝑑 𝑛_1 𝑎𝑛𝑑 𝑛_2  𝑡ℎ𝑒 𝑛𝑢𝑚𝑏𝑒𝑟 𝑜𝑓 𝑜𝑏𝑠𝑒𝑟𝑣𝑎𝑡𝑖𝑜𝑛𝑠 𝑖𝑛 𝐺𝑃𝑇−3.5 𝑎𝑛𝑑 𝐺𝑃𝑇−4 𝑟𝑒𝑠𝑝𝑒𝑐𝑡𝑖𝑣𝑒𝑙𝑦.</a:t>
+              </a:r>
+              <a:endParaRPr lang="en-US" sz="1100"/>
+            </a:p>
+            <a:p>
+              <a:r>
+                <a:rPr lang="en-US" sz="1100"/>
+                <a:t>If the level</a:t>
+              </a:r>
+              <a:r>
+                <a:rPr lang="en-US" sz="1100" baseline="0"/>
+                <a:t> of confidence is higher than the p-value then we have statistical evidence that GPT-3.5 is less effective than GPT-4.</a:t>
+              </a:r>
+              <a:r>
+                <a:rPr lang="en-US" sz="1100"/>
+                <a:t> 	</a:t>
+              </a:r>
+            </a:p>
+          </xdr:txBody>
+        </xdr:sp>
+      </mc:Fallback>
+    </mc:AlternateContent>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
 </xdr:wsDr>
 </file>
 
@@ -3013,7 +4585,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:J32"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="D1" workbookViewId="0">
+    <sheetView topLeftCell="D1" workbookViewId="0">
       <selection activeCell="H12" sqref="H12"/>
     </sheetView>
   </sheetViews>
@@ -3331,7 +4903,7 @@
         <f>(H2-G2)/G2</f>
         <v>0.41666666666666663</v>
       </c>
-      <c r="H12" s="63">
+      <c r="H12" s="58">
         <f>(H8-G8)/G8</f>
         <v>0.49999999999999994</v>
       </c>
@@ -3507,56 +5079,68 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A036893F-A5E2-474B-9F72-94CC5655B384}">
-  <dimension ref="A8:O40"/>
+  <dimension ref="A8:R41"/>
   <sheetViews>
-    <sheetView topLeftCell="A22" workbookViewId="0">
-      <selection activeCell="A26" sqref="A26:G40"/>
+    <sheetView tabSelected="1" topLeftCell="A25" workbookViewId="0">
+      <selection activeCell="C37" sqref="C37"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="1" max="1" width="28.7265625" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="21.54296875" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="23.1796875" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="17.36328125" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="12.453125" bestFit="1" customWidth="1"/>
+    <col min="4" max="5" width="11.81640625" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="17.36328125" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="12.36328125" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="11.81640625" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="17.36328125" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="11.81640625" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="11.81640625" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="13.6328125" bestFit="1" customWidth="1"/>
+    <col min="17" max="17" width="17.36328125" bestFit="1" customWidth="1"/>
+    <col min="18" max="18" width="11.81640625" bestFit="1" customWidth="1"/>
+    <col min="19" max="19" width="5.453125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="8" spans="1:15" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="D8" s="12"/>
     </row>
     <row r="9" spans="1:15" x14ac:dyDescent="0.35">
-      <c r="A9" s="60" t="s">
-        <v>39</v>
-      </c>
-      <c r="B9" s="58" t="s">
+      <c r="A9" s="64" t="s">
+        <v>47</v>
+      </c>
+      <c r="B9" s="62" t="s">
         <v>3</v>
       </c>
-      <c r="C9" s="62"/>
-      <c r="D9" s="58" t="s">
+      <c r="C9" s="66"/>
+      <c r="D9" s="62" t="s">
         <v>4</v>
       </c>
-      <c r="E9" s="62"/>
-      <c r="F9" s="58" t="s">
+      <c r="E9" s="66"/>
+      <c r="F9" s="62" t="s">
         <v>5</v>
       </c>
-      <c r="G9" s="62"/>
-      <c r="H9" s="58" t="s">
+      <c r="G9" s="66"/>
+      <c r="H9" s="62" t="s">
         <v>6</v>
       </c>
-      <c r="I9" s="62"/>
-      <c r="J9" s="58" t="s">
+      <c r="I9" s="66"/>
+      <c r="J9" s="62" t="s">
         <v>7</v>
       </c>
-      <c r="K9" s="62"/>
-      <c r="L9" s="58" t="s">
+      <c r="K9" s="66"/>
+      <c r="L9" s="62" t="s">
         <v>8</v>
       </c>
-      <c r="M9" s="62"/>
-      <c r="N9" s="58" t="s">
+      <c r="M9" s="66"/>
+      <c r="N9" s="62" t="s">
         <v>36</v>
       </c>
-      <c r="O9" s="59"/>
+      <c r="O9" s="63"/>
     </row>
     <row r="10" spans="1:15" ht="15" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A10" s="61"/>
+      <c r="A10" s="65"/>
       <c r="B10" s="42" t="s">
         <v>29</v>
       </c>
@@ -3895,332 +5479,222 @@
     <row r="16" spans="1:15" x14ac:dyDescent="0.35">
       <c r="D16" s="48"/>
     </row>
-    <row r="17" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="17" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A17" s="40"/>
     </row>
-    <row r="26" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A26" t="s">
-        <v>39</v>
-      </c>
-      <c r="C26" t="s">
-        <v>40</v>
-      </c>
-      <c r="D26" t="s">
-        <v>41</v>
-      </c>
-      <c r="E26" t="s">
-        <v>42</v>
-      </c>
-      <c r="F26" t="s">
-        <v>43</v>
-      </c>
-      <c r="G26" t="s">
-        <v>44</v>
+    <row r="31" spans="1:15" x14ac:dyDescent="0.35">
+      <c r="A31" s="61" t="s">
+        <v>3</v>
+      </c>
+      <c r="B31" s="46" t="s">
+        <v>49</v>
+      </c>
+      <c r="C31" s="67">
+        <f>(B13-C13)/SQRT((B15/B11)+(C15/C11))</f>
+        <v>-31.98964710610208</v>
+      </c>
+      <c r="E31" s="61" t="s">
+        <v>5</v>
+      </c>
+      <c r="F31" s="46" t="s">
+        <v>48</v>
+      </c>
+      <c r="G31" s="67">
+        <f>(F13-G13)/SQRT((F15/F11)+(G15/G11))</f>
+        <v>-44.965158680410781</v>
+      </c>
+      <c r="I31" s="61" t="s">
+        <v>7</v>
+      </c>
+      <c r="J31" s="46" t="s">
+        <v>48</v>
+      </c>
+      <c r="K31" s="67">
+        <f>(J13-K13)/SQRT((J15/J11)+(K15/K11))</f>
+        <v>-35.894869464501333</v>
       </c>
     </row>
-    <row r="27" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A27" t="s">
-        <v>3</v>
-      </c>
-      <c r="B27" t="s">
-        <v>29</v>
-      </c>
-      <c r="C27">
-        <v>90</v>
-      </c>
-      <c r="D27">
-        <v>0.26666666666666666</v>
-      </c>
-      <c r="E27">
-        <v>24</v>
-      </c>
-      <c r="F27">
-        <v>17.600000000000001</v>
-      </c>
-      <c r="G27">
-        <v>4.1952353926806065</v>
-      </c>
+    <row r="32" spans="1:15" x14ac:dyDescent="0.35">
+      <c r="A32" s="61"/>
+      <c r="B32" s="46" t="s">
+        <v>45</v>
+      </c>
+      <c r="C32" s="67">
+        <f>_xlfn.NORM.S.DIST(C31,TRUE)</f>
+        <v>7.5955250343986617E-225</v>
+      </c>
+      <c r="E32" s="61"/>
+      <c r="F32" s="46" t="s">
+        <v>45</v>
+      </c>
+      <c r="G32" s="67">
+        <f>_xlfn.NORM.DIST(G31,0,1,TRUE)</f>
+        <v>0</v>
+      </c>
+      <c r="I32" s="61"/>
+      <c r="J32" s="46" t="s">
+        <v>45</v>
+      </c>
+      <c r="K32" s="67">
+        <f>_xlfn.NORM.DIST(K31,0,1,TRUE)</f>
+        <v>1.8365003001740021E-282</v>
+      </c>
+      <c r="O32" s="59"/>
     </row>
-    <row r="28" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="B28" t="s">
-        <v>30</v>
-      </c>
-      <c r="C28">
-        <v>90</v>
-      </c>
-      <c r="D28">
-        <v>0.37777777777777777</v>
-      </c>
-      <c r="E28">
-        <v>34</v>
-      </c>
-      <c r="F28">
-        <v>21.155555555555555</v>
-      </c>
-      <c r="G28">
-        <v>4.5995168828427575</v>
-      </c>
+    <row r="33" spans="1:18" x14ac:dyDescent="0.35">
+      <c r="A33" s="61"/>
+      <c r="B33" s="46" t="s">
+        <v>46</v>
+      </c>
+      <c r="C33" s="67">
+        <v>0.05</v>
+      </c>
+      <c r="E33" s="61"/>
+      <c r="F33" s="46" t="s">
+        <v>46</v>
+      </c>
+      <c r="G33" s="67">
+        <v>0.05</v>
+      </c>
+      <c r="I33" s="61"/>
+      <c r="J33" s="46" t="s">
+        <v>46</v>
+      </c>
+      <c r="K33" s="67">
+        <v>0.05</v>
+      </c>
+      <c r="O33" s="59"/>
     </row>
-    <row r="29" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A29" t="s">
+    <row r="34" spans="1:18" x14ac:dyDescent="0.35">
+      <c r="C34" s="67"/>
+      <c r="G34" s="67"/>
+      <c r="K34" s="67"/>
+      <c r="O34" s="59"/>
+    </row>
+    <row r="35" spans="1:18" x14ac:dyDescent="0.35">
+      <c r="A35" s="61" t="s">
         <v>4</v>
       </c>
-      <c r="B29" t="s">
-        <v>29</v>
-      </c>
-      <c r="C29">
-        <v>90</v>
-      </c>
-      <c r="D29">
-        <v>0.24444444444444444</v>
-      </c>
-      <c r="E29">
-        <v>22</v>
-      </c>
-      <c r="F29">
-        <v>16.62222222222222</v>
-      </c>
-      <c r="G29">
-        <v>4.0770359603788409</v>
-      </c>
+      <c r="B35" s="46" t="s">
+        <v>48</v>
+      </c>
+      <c r="C35" s="67">
+        <f>(D13-E13)/SQRT((D15/D11)+(E15/E11))</f>
+        <v>-25.956684389789718</v>
+      </c>
+      <c r="E35" s="61" t="s">
+        <v>6</v>
+      </c>
+      <c r="F35" s="46" t="s">
+        <v>48</v>
+      </c>
+      <c r="G35" s="67">
+        <f>(H13-I13)/SQRT((H15/H11)+(I15/I11))</f>
+        <v>-51.784927611388859</v>
+      </c>
+      <c r="I35" s="61" t="s">
+        <v>8</v>
+      </c>
+      <c r="J35" s="46" t="s">
+        <v>48</v>
+      </c>
+      <c r="K35" s="67">
+        <f>(L13-M13)/SQRT((L15/L11)+(M15/M11))</f>
+        <v>-22.510155336221519</v>
+      </c>
+      <c r="O35" s="59"/>
     </row>
-    <row r="30" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="B30" t="s">
-        <v>30</v>
-      </c>
-      <c r="C30">
-        <v>90</v>
-      </c>
-      <c r="D30">
-        <v>0.33333333333333331</v>
-      </c>
-      <c r="E30">
-        <v>30</v>
-      </c>
-      <c r="F30">
-        <v>20.000000000000004</v>
-      </c>
-      <c r="G30">
-        <v>4.4721359549995796</v>
-      </c>
+    <row r="36" spans="1:18" x14ac:dyDescent="0.35">
+      <c r="A36" s="61"/>
+      <c r="B36" s="46" t="s">
+        <v>45</v>
+      </c>
+      <c r="C36" s="67">
+        <f>_xlfn.NORM.S.DIST(C35,TRUE)</f>
+        <v>7.6415475367401839E-149</v>
+      </c>
+      <c r="E36" s="61"/>
+      <c r="F36" s="46" t="s">
+        <v>45</v>
+      </c>
+      <c r="G36" s="67">
+        <f>_xlfn.NORM.DIST(G35,0,1,TRUE)</f>
+        <v>0</v>
+      </c>
+      <c r="I36" s="61"/>
+      <c r="J36" s="46" t="s">
+        <v>45</v>
+      </c>
+      <c r="K36" s="67">
+        <f>_xlfn.NORM.S.DIST(K35,TRUE)</f>
+        <v>1.6505603112569986E-112</v>
+      </c>
+      <c r="O36" s="59"/>
     </row>
-    <row r="31" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A31" t="s">
-        <v>5</v>
-      </c>
-      <c r="B31" t="s">
-        <v>29</v>
-      </c>
-      <c r="C31">
-        <v>90</v>
-      </c>
-      <c r="D31">
-        <v>0.24444444444444444</v>
-      </c>
-      <c r="E31">
-        <v>22</v>
-      </c>
-      <c r="F31">
-        <v>16.62222222222222</v>
-      </c>
-      <c r="G31">
-        <v>4.0770359603788409</v>
-      </c>
+    <row r="37" spans="1:18" x14ac:dyDescent="0.35">
+      <c r="A37" s="61"/>
+      <c r="B37" s="46" t="s">
+        <v>46</v>
+      </c>
+      <c r="C37" s="67">
+        <v>0.05</v>
+      </c>
+      <c r="E37" s="61"/>
+      <c r="F37" s="46" t="s">
+        <v>46</v>
+      </c>
+      <c r="G37" s="67">
+        <v>0.05</v>
+      </c>
+      <c r="I37" s="61"/>
+      <c r="J37" s="46" t="s">
+        <v>46</v>
+      </c>
+      <c r="K37" s="67">
+        <v>0.05</v>
+      </c>
+      <c r="O37" s="59"/>
+      <c r="R37" s="60"/>
     </row>
-    <row r="32" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="B32" t="s">
-        <v>30</v>
-      </c>
-      <c r="C32">
-        <v>90</v>
-      </c>
-      <c r="D32">
-        <v>0.4</v>
-      </c>
-      <c r="E32">
+    <row r="38" spans="1:18" x14ac:dyDescent="0.35">
+      <c r="G38" s="67"/>
+    </row>
+    <row r="39" spans="1:18" x14ac:dyDescent="0.35">
+      <c r="E39" s="61" t="s">
         <v>36</v>
       </c>
-      <c r="F32">
-        <v>21.599999999999998</v>
-      </c>
-      <c r="G32">
-        <v>4.6475800154489004</v>
+      <c r="F39" s="46" t="s">
+        <v>48</v>
+      </c>
+      <c r="G39" s="67">
+        <f>(N13-O13)/SQRT((N15/N11)+(O15/O11))</f>
+        <v>-333.21757097567604</v>
       </c>
     </row>
-    <row r="33" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A33" t="s">
-        <v>6</v>
-      </c>
-      <c r="B33" t="s">
-        <v>29</v>
-      </c>
-      <c r="C33">
-        <v>90</v>
-      </c>
-      <c r="D33">
-        <v>0.22222222222222221</v>
-      </c>
-      <c r="E33">
-        <v>20</v>
-      </c>
-      <c r="F33">
-        <v>15.555555555555555</v>
-      </c>
-      <c r="G33">
-        <v>3.9440531887330774</v>
-      </c>
+    <row r="40" spans="1:18" x14ac:dyDescent="0.35">
+      <c r="A40" s="59"/>
+      <c r="E40" s="61"/>
+      <c r="F40" s="46" t="s">
+        <v>45</v>
+      </c>
+      <c r="G40" s="67">
+        <f>_xlfn.NORM.S.DIST(G39,TRUE)</f>
+        <v>0</v>
+      </c>
+      <c r="O40" s="59"/>
     </row>
-    <row r="34" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="B34" t="s">
-        <v>30</v>
-      </c>
-      <c r="C34">
-        <v>90</v>
-      </c>
-      <c r="D34">
-        <v>0.4</v>
-      </c>
-      <c r="E34">
-        <v>36</v>
-      </c>
-      <c r="F34">
-        <v>21.599999999999998</v>
-      </c>
-      <c r="G34">
-        <v>4.6475800154489004</v>
-      </c>
-    </row>
-    <row r="35" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A35" t="s">
-        <v>7</v>
-      </c>
-      <c r="B35" t="s">
-        <v>29</v>
-      </c>
-      <c r="C35">
-        <v>90</v>
-      </c>
-      <c r="D35">
-        <v>0.22222222222222221</v>
-      </c>
-      <c r="E35">
-        <v>20</v>
-      </c>
-      <c r="F35">
-        <v>15.555555555555555</v>
-      </c>
-      <c r="G35">
-        <v>3.9440531887330774</v>
-      </c>
-    </row>
-    <row r="36" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="B36" t="s">
-        <v>30</v>
-      </c>
-      <c r="C36">
-        <v>90</v>
-      </c>
-      <c r="D36">
-        <v>0.34444444444444444</v>
-      </c>
-      <c r="E36">
-        <v>31</v>
-      </c>
-      <c r="F36">
-        <v>20.322222222222223</v>
-      </c>
-      <c r="G36">
-        <v>4.508017549014447</v>
-      </c>
-    </row>
-    <row r="37" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A37" t="s">
-        <v>8</v>
-      </c>
-      <c r="B37" t="s">
-        <v>29</v>
-      </c>
-      <c r="C37">
-        <v>90</v>
-      </c>
-      <c r="D37">
-        <v>0.26666666666666666</v>
-      </c>
-      <c r="E37">
-        <v>24</v>
-      </c>
-      <c r="F37">
-        <v>17.600000000000001</v>
-      </c>
-      <c r="G37">
-        <v>4.1952353926806065</v>
-      </c>
-    </row>
-    <row r="38" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="B38" t="s">
-        <v>30</v>
-      </c>
-      <c r="C38">
-        <v>90</v>
-      </c>
-      <c r="D38">
-        <v>0.34444444444444444</v>
-      </c>
-      <c r="E38">
-        <v>31</v>
-      </c>
-      <c r="F38">
-        <v>20.322222222222223</v>
-      </c>
-      <c r="G38">
-        <v>4.508017549014447</v>
-      </c>
-    </row>
-    <row r="39" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A39" t="s">
-        <v>36</v>
-      </c>
-      <c r="B39" t="s">
-        <v>29</v>
-      </c>
-      <c r="C39">
-        <v>540</v>
-      </c>
-      <c r="D39">
-        <v>0.24444444444444444</v>
-      </c>
-      <c r="E39">
-        <v>132</v>
-      </c>
-      <c r="F39">
-        <v>99.733333333333334</v>
-      </c>
-      <c r="G39">
-        <v>9.986657765906136</v>
-      </c>
-    </row>
-    <row r="40" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="B40" t="s">
-        <v>30</v>
-      </c>
-      <c r="C40">
-        <v>540</v>
-      </c>
-      <c r="D40">
-        <v>0.36666666666666664</v>
-      </c>
-      <c r="E40">
-        <v>198</v>
-      </c>
-      <c r="F40">
-        <v>125.39999999999999</v>
-      </c>
-      <c r="G40">
-        <v>11.198214143335534</v>
+    <row r="41" spans="1:18" x14ac:dyDescent="0.35">
+      <c r="E41" s="61"/>
+      <c r="F41" s="46" t="s">
+        <v>46</v>
+      </c>
+      <c r="G41" s="67">
+        <v>0.05</v>
       </c>
     </row>
   </sheetData>
-  <mergeCells count="8">
+  <mergeCells count="15">
+    <mergeCell ref="E39:E41"/>
     <mergeCell ref="N9:O9"/>
     <mergeCell ref="A9:A10"/>
     <mergeCell ref="B9:C9"/>
@@ -4229,6 +5703,12 @@
     <mergeCell ref="H9:I9"/>
     <mergeCell ref="J9:K9"/>
     <mergeCell ref="L9:M9"/>
+    <mergeCell ref="A31:A33"/>
+    <mergeCell ref="A35:A37"/>
+    <mergeCell ref="E31:E33"/>
+    <mergeCell ref="E35:E37"/>
+    <mergeCell ref="I31:I33"/>
+    <mergeCell ref="I35:I37"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <drawing r:id="rId1"/>
